--- a/pract/Lab0300.xlsx
+++ b/pract/Lab0300.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\Network-Technologies-and-OS-Administration\pract\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A3AD75-3170-4327-882D-C157F3A9D4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38700086-6E84-47D6-8A59-43672997CED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E18EC5A6-CB70-4FA5-93F9-CCCD53ADB0AE}"/>
   </bookViews>
@@ -528,15 +528,15 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.88671875" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
     <col min="4" max="4" width="17.21875" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -665,13 +665,13 @@
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>29</v>
       </c>
     </row>

--- a/pract/Lab0300.xlsx
+++ b/pract/Lab0300.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\Network-Technologies-and-OS-Administration\pract\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38700086-6E84-47D6-8A59-43672997CED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654E4DF6-8916-4FC4-B07B-1ACD06F6BF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E18EC5A6-CB70-4FA5-93F9-CCCD53ADB0AE}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
-  <si>
-    <t>№ п/п</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Адрес сети</t>
   </si>
@@ -130,6 +127,30 @@
   </si>
   <si>
     <t>255.255.192.0</t>
+  </si>
+  <si>
+    <t>1: R1 &lt;-&gt; R5</t>
+  </si>
+  <si>
+    <t>2: R1 &lt;-&gt; R2</t>
+  </si>
+  <si>
+    <t>3: R1 &lt;-&gt; R3</t>
+  </si>
+  <si>
+    <t>4: R2 &lt;-&gt; R6</t>
+  </si>
+  <si>
+    <t>5: R4 &lt;-&gt; R6</t>
+  </si>
+  <si>
+    <t>6: R2 &lt;-&gt; R4</t>
+  </si>
+  <si>
+    <t>7: R4 &lt;-&gt; R5</t>
+  </si>
+  <si>
+    <t>Подсеть; связанные пары роутеров</t>
   </si>
 </sst>
 </file>
@@ -528,11 +549,12 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="34.21875" customWidth="1"/>
     <col min="2" max="2" width="18.88671875" customWidth="1"/>
     <col min="3" max="3" width="19.109375" customWidth="1"/>
     <col min="4" max="4" width="17.21875" customWidth="1"/>
@@ -540,139 +562,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/pract/Lab0300.xlsx
+++ b/pract/Lab0300.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\Network-Technologies-and-OS-Administration\pract\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654E4DF6-8916-4FC4-B07B-1ACD06F6BF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A975DF-07A5-4744-9641-7136A0283A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E18EC5A6-CB70-4FA5-93F9-CCCD53ADB0AE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="64">
   <si>
     <t>Адрес сети</t>
   </si>
@@ -151,13 +151,88 @@
   </si>
   <si>
     <t>Подсеть; связанные пары роутеров</t>
+  </si>
+  <si>
+    <t>5.56.0.0</t>
+  </si>
+  <si>
+    <t>49.216.0.0</t>
+  </si>
+  <si>
+    <t>119.105.126.64</t>
+  </si>
+  <si>
+    <t>134.242.128.0</t>
+  </si>
+  <si>
+    <t>148.200.0.0</t>
+  </si>
+  <si>
+    <t>199.46.72.96</t>
+  </si>
+  <si>
+    <t>ip route</t>
+  </si>
+  <si>
+    <t>В какую маску</t>
+  </si>
+  <si>
+    <t>74.64.0.0</t>
+  </si>
+  <si>
+    <t># К сети 1: R1 &lt;-&gt; R5</t>
+  </si>
+  <si>
+    <t># К сети 2: R1 &lt;-&gt; R2</t>
+  </si>
+  <si>
+    <t># К сети 3: R1 &lt;-&gt; R3</t>
+  </si>
+  <si>
+    <t># К сети 4: R2 &lt;-&gt; R6</t>
+  </si>
+  <si>
+    <t># К сети 5: R4 &lt;-&gt; R6</t>
+  </si>
+  <si>
+    <t># К сети 6: R2 &lt;-&gt; R4</t>
+  </si>
+  <si>
+    <t># К сети 7: R4 &lt;-&gt; R5</t>
+  </si>
+  <si>
+    <t>Роутер 1</t>
+  </si>
+  <si>
+    <t>Роутер 2</t>
+  </si>
+  <si>
+    <t>Роутер 3</t>
+  </si>
+  <si>
+    <t>Роутер 4</t>
+  </si>
+  <si>
+    <t>Роутер 5</t>
+  </si>
+  <si>
+    <t>Роутер 6</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>В какой адрес сети</t>
+  </si>
+  <si>
+    <t>Через какой адрес интерфейса</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +250,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -182,12 +273,28 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -211,30 +318,51 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="60% — акцент1" xfId="1" builtinId="32"/>
-    <cellStyle name="60% — акцент6" xfId="2" builtinId="52"/>
+  <cellStyles count="6">
+    <cellStyle name="40% — акцент1" xfId="3" builtinId="31"/>
+    <cellStyle name="60% — акцент1" xfId="4" builtinId="32"/>
+    <cellStyle name="60% — акцент6" xfId="5" builtinId="52"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -546,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E78C6B3-772D-4B1F-8BE4-D82AA2572913}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,10 +686,11 @@
     <col min="2" max="2" width="18.88671875" customWidth="1"/>
     <col min="3" max="3" width="19.109375" customWidth="1"/>
     <col min="4" max="4" width="17.21875" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -578,7 +707,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
@@ -595,7 +724,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -612,7 +741,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -629,7 +758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>34</v>
       </c>
@@ -646,7 +775,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>35</v>
       </c>
@@ -663,7 +792,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>36</v>
       </c>
@@ -680,7 +809,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
@@ -697,8 +826,795 @@
         <v>28</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
+      <c r="B40" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="5"/>
+      <c r="B41" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="6"/>
+      <c r="B47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="6"/>
+      <c r="B48" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="6"/>
+      <c r="B49" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="6"/>
+      <c r="B50" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="6"/>
+      <c r="B51" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="6"/>
+      <c r="B52" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <mergeCells count="6">
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="A46:A52"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/pract/Lab0300.xlsx
+++ b/pract/Lab0300.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\Network-Technologies-and-OS-Administration\pract\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A975DF-07A5-4744-9641-7136A0283A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FD9285-D826-4799-97E5-874B7F7E71FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E18EC5A6-CB70-4FA5-93F9-CCCD53ADB0AE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="76">
   <si>
     <t>Адрес сети</t>
   </si>
@@ -156,15 +156,33 @@
     <t>5.56.0.0</t>
   </si>
   <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
     <t>49.216.0.0</t>
   </si>
   <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
     <t>119.105.126.64</t>
   </si>
   <si>
+    <t>R6</t>
+  </si>
+  <si>
     <t>134.242.128.0</t>
   </si>
   <si>
+    <t>R4</t>
+  </si>
+  <si>
     <t>148.200.0.0</t>
   </si>
   <si>
@@ -226,6 +244,24 @@
   </si>
   <si>
     <t>Через какой адрес интерфейса</t>
+  </si>
+  <si>
+    <t>Устройство</t>
+  </si>
+  <si>
+    <t>Интерфейс</t>
+  </si>
+  <si>
+    <t>G0/0</t>
+  </si>
+  <si>
+    <t>G0/1</t>
+  </si>
+  <si>
+    <t>G0/2</t>
+  </si>
+  <si>
+    <t>IP адрес</t>
   </si>
 </sst>
 </file>
@@ -674,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E78C6B3-772D-4B1F-8BE4-D82AA2572913}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,9 +724,13 @@
     <col min="4" max="4" width="17.21875" customWidth="1"/>
     <col min="5" max="5" width="28.109375" customWidth="1"/>
     <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -706,8 +746,20 @@
       <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
@@ -723,8 +775,20 @@
       <c r="E2" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -740,8 +804,20 @@
       <c r="E3" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -757,8 +833,20 @@
       <c r="E4" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>34</v>
       </c>
@@ -774,8 +862,20 @@
       <c r="E5" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>35</v>
       </c>
@@ -791,8 +891,20 @@
       <c r="E6" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>36</v>
       </c>
@@ -808,8 +920,20 @@
       <c r="E7" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
@@ -825,24 +949,62 @@
       <c r="E8" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>39</v>
@@ -851,55 +1013,91 @@
         <v>25</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>28</v>
@@ -908,16 +1106,28 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>29</v>
@@ -926,16 +1136,28 @@
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>30</v>
@@ -944,16 +1166,16 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>28</v>
@@ -962,15 +1184,15 @@
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>39</v>
@@ -982,34 +1204,34 @@
         <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>27</v>
@@ -1018,34 +1240,34 @@
         <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F21" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>29</v>
@@ -1054,34 +1276,34 @@
         <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>28</v>
@@ -1090,15 +1312,15 @@
         <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>39</v>
@@ -1110,16 +1332,16 @@
         <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>26</v>
@@ -1128,34 +1350,34 @@
         <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>28</v>
@@ -1164,16 +1386,16 @@
         <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>29</v>
@@ -1182,16 +1404,16 @@
         <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>30</v>
@@ -1200,16 +1422,16 @@
         <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>28</v>
@@ -1218,15 +1440,15 @@
         <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>39</v>
@@ -1238,16 +1460,16 @@
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>26</v>
@@ -1256,16 +1478,16 @@
         <v>18</v>
       </c>
       <c r="F33" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>27</v>
@@ -1274,16 +1496,16 @@
         <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>28</v>
@@ -1292,69 +1514,69 @@
         <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F37" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F38" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>39</v>
@@ -1363,19 +1585,19 @@
         <v>25</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F39" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>26</v>
@@ -1384,16 +1606,16 @@
         <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>27</v>
@@ -1402,16 +1624,16 @@
         <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>28</v>
@@ -1420,16 +1642,16 @@
         <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>29</v>
@@ -1438,16 +1660,16 @@
         <v>20</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>30</v>
@@ -1456,33 +1678,33 @@
         <v>20</v>
       </c>
       <c r="F44" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F45" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>39</v>
@@ -1494,16 +1716,16 @@
         <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>26</v>
@@ -1512,16 +1734,16 @@
         <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>27</v>
@@ -1530,52 +1752,52 @@
         <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F49" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F50" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>30</v>
@@ -1584,16 +1806,16 @@
         <v>16</v>
       </c>
       <c r="F51" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>28</v>
@@ -1602,7 +1824,7 @@
         <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/pract/Lab0300.xlsx
+++ b/pract/Lab0300.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\Network-Technologies-and-OS-Administration\pract\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FD9285-D826-4799-97E5-874B7F7E71FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA8DBBA-A839-451F-B2EC-D38FC1689983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E18EC5A6-CB70-4FA5-93F9-CCCD53ADB0AE}"/>
   </bookViews>
@@ -713,7 +713,7 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1084,7 +1084,7 @@
       <c r="I13" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K13" s="2" t="s">

--- a/pract/Lab0300.xlsx
+++ b/pract/Lab0300.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\Network-Technologies-and-OS-Administration\pract\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA8DBBA-A839-451F-B2EC-D38FC1689983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73C0BE7-682C-4949-8C6E-862501E47DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E18EC5A6-CB70-4FA5-93F9-CCCD53ADB0AE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="78">
   <si>
     <t>Адрес сети</t>
   </si>
@@ -262,6 +262,12 @@
   </si>
   <si>
     <t>IP адрес</t>
+  </si>
+  <si>
+    <t>255.255.255.0</t>
+  </si>
+  <si>
+    <t>192.168.86.0</t>
   </si>
 </sst>
 </file>
@@ -362,7 +368,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -376,20 +382,23 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -710,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E78C6B3-772D-4B1F-8BE4-D82AA2572913}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1000,19 +1009,19 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="5" t="s">
         <v>67</v>
       </c>
       <c r="F11" t="s">
@@ -1032,17 +1041,17 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="5" t="s">
         <v>67</v>
       </c>
       <c r="F12" t="s">
@@ -1062,17 +1071,17 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="5" t="s">
         <v>67</v>
       </c>
       <c r="F13" t="s">
@@ -1092,17 +1101,17 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F14" t="s">
@@ -1122,17 +1131,17 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F15" t="s">
@@ -1152,311 +1161,324 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="9" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="H17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="8" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="5" t="s">
         <v>67</v>
       </c>
       <c r="F19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="9" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="8" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="5" t="s">
         <v>67</v>
       </c>
       <c r="F21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="9" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="8" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="5" t="s">
         <v>67</v>
       </c>
       <c r="F23" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="9" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F25" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="9" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F26" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="8" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="5" t="s">
         <v>67</v>
       </c>
       <c r="F27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="9" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="9" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F29" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="9" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F30" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="9" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F31" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="9" t="s">
+      <c r="B32" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F32" t="s">
@@ -1464,17 +1486,17 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="9" t="s">
+      <c r="A33" s="9"/>
+      <c r="B33" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F33" t="s">
@@ -1482,17 +1504,17 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="9" t="s">
+      <c r="A34" s="9"/>
+      <c r="B34" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F34" t="s">
@@ -1500,17 +1522,17 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="9" t="s">
+      <c r="A35" s="9"/>
+      <c r="B35" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F35" t="s">
@@ -1518,17 +1540,17 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="8" t="s">
+      <c r="A36" s="9"/>
+      <c r="B36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="5" t="s">
         <v>67</v>
       </c>
       <c r="F36" t="s">
@@ -1536,17 +1558,17 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="8" t="s">
+      <c r="A37" s="9"/>
+      <c r="B37" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="5" t="s">
         <v>67</v>
       </c>
       <c r="F37" t="s">
@@ -1554,17 +1576,17 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="8" t="s">
+      <c r="A38" s="9"/>
+      <c r="B38" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="5" t="s">
         <v>67</v>
       </c>
       <c r="F38" t="s">
@@ -1572,19 +1594,19 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="8" t="s">
+      <c r="B39" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="5" t="s">
         <v>67</v>
       </c>
       <c r="F39" t="s">
@@ -1592,17 +1614,17 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="9" t="s">
+      <c r="A40" s="7"/>
+      <c r="B40" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F40" t="s">
@@ -1610,17 +1632,17 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="9" t="s">
+      <c r="A41" s="7"/>
+      <c r="B41" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F41" t="s">
@@ -1628,17 +1650,17 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="9" t="s">
+      <c r="A42" s="7"/>
+      <c r="B42" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F42" t="s">
@@ -1646,17 +1668,17 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="9" t="s">
+      <c r="A43" s="7"/>
+      <c r="B43" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F43" t="s">
@@ -1664,17 +1686,17 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="9" t="s">
+      <c r="A44" s="7"/>
+      <c r="B44" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F44" t="s">
@@ -1682,17 +1704,17 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="8" t="s">
+      <c r="A45" s="7"/>
+      <c r="B45" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="5" t="s">
         <v>67</v>
       </c>
       <c r="F45" t="s">
@@ -1700,19 +1722,19 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="9" t="s">
+      <c r="B46" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F46" t="s">
@@ -1720,17 +1742,17 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="6"/>
-      <c r="B47" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="9" t="s">
+      <c r="A47" s="9"/>
+      <c r="B47" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F47" t="s">
@@ -1738,17 +1760,17 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="6"/>
-      <c r="B48" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="9" t="s">
+      <c r="A48" s="9"/>
+      <c r="B48" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F48" t="s">
@@ -1756,17 +1778,17 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="6"/>
-      <c r="B49" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" s="8" t="s">
+      <c r="A49" s="9"/>
+      <c r="B49" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="5" t="s">
         <v>67</v>
       </c>
       <c r="F49" t="s">
@@ -1774,17 +1796,17 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="6"/>
-      <c r="B50" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="8" t="s">
+      <c r="A50" s="9"/>
+      <c r="B50" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="5" t="s">
         <v>67</v>
       </c>
       <c r="F50" t="s">
@@ -1792,17 +1814,17 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="6"/>
-      <c r="B51" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="9" t="s">
+      <c r="A51" s="9"/>
+      <c r="B51" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F51" t="s">
@@ -1810,17 +1832,17 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="6"/>
-      <c r="B52" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="9" t="s">
+      <c r="A52" s="9"/>
+      <c r="B52" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F52" t="s">
@@ -1829,12 +1851,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A46:A52"/>
     <mergeCell ref="A11:A17"/>
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A25:A31"/>
     <mergeCell ref="A32:A38"/>
     <mergeCell ref="A39:A45"/>
-    <mergeCell ref="A46:A52"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
